--- a/Fortran code/Fortran_bcs_pin_ettore/Record/record 7-26-2018.xlsx
+++ b/Fortran code/Fortran_bcs_pin_ettore/Record/record 7-26-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8A19BC79-B799-473B-8049-CE7F7625CEAC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FF6901-CCD1-4D09-8856-244179DC3BC0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -655,6 +655,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3714,6 +3745,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -9216,8 +9278,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -9247,15 +9309,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>490537</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9283,15 +9345,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>519112</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9800,8 +9862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:DN97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="CF93" sqref="CF93:CF97"/>
+    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
+      <selection activeCell="DJ30" sqref="DJ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
